--- a/Salesforce/src/test/resources/suitea.xlsx
+++ b/Salesforce/src/test/resources/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
   <si>
     <t>TCID</t>
   </si>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,10 +782,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -797,7 +797,7 @@
     <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -813,8 +813,11 @@
       <c r="E1" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -827,8 +830,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -841,8 +847,11 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -855,8 +864,11 @@
       <c r="D4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -872,8 +884,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -886,8 +901,11 @@
       <c r="D6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -903,8 +921,11 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -917,8 +938,11 @@
       <c r="D8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -928,8 +952,11 @@
       <c r="C9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -939,8 +966,11 @@
       <c r="E10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -950,8 +980,11 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -961,15 +994,44 @@
       <c r="D12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Salesforce/src/test/resources/suitea.xlsx
+++ b/Salesforce/src/test/resources/suitea.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Keyword" sheetId="4" r:id="rId3"/>
+    <sheet name="Keyword" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
   <si>
     <t>TCID</t>
   </si>
@@ -27,21 +27,21 @@
     <t>LoginTest</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>TestA</t>
   </si>
   <si>
     <t>TestB</t>
   </si>
   <si>
-    <t>TestC</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -51,7 +51,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ExpectedResult</t>
+    <t>ExpectedResults</t>
   </si>
   <si>
     <t>chrome</t>
@@ -63,24 +63,27 @@
     <t>zoho2015</t>
   </si>
   <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
     <t>LoginSuccess</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>U1</t>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>P2</t>
   </si>
   <si>
     <t>P1</t>
   </si>
   <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -93,28 +96,28 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Open Browser</t>
-  </si>
-  <si>
-    <t>Navigate to zoho url</t>
-  </si>
-  <si>
-    <t>Click on Login link</t>
-  </si>
-  <si>
-    <t>Enter the Email address</t>
-  </si>
-  <si>
-    <t>Click on next Button</t>
+    <t>Open the Browser</t>
+  </si>
+  <si>
+    <t>Navigate to the Zoho url</t>
+  </si>
+  <si>
+    <t>Click on Login Link</t>
+  </si>
+  <si>
+    <t>Enter the username</t>
+  </si>
+  <si>
+    <t>Click on next button</t>
   </si>
   <si>
     <t>Enter the Password</t>
   </si>
   <si>
-    <t>Click on SiginIn Button</t>
-  </si>
-  <si>
-    <t>Validate the User</t>
+    <t>Click onSignin Button</t>
+  </si>
+  <si>
+    <t>Validate the user</t>
   </si>
   <si>
     <t>openBrowser</t>
@@ -129,10 +132,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>validateLogin</t>
-  </si>
-  <si>
-    <t>http://www.zoho.com</t>
+    <t>validatLogin</t>
   </si>
   <si>
     <t>loginlink</t>
@@ -151,13 +151,19 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>https://www.zoho.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,8 +186,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,18 +209,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -230,6 +237,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -238,13 +258,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -544,13 +565,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -566,31 +587,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -601,180 +622,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="F8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -782,263 +821,222 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E11" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce/src/test/resources/suitea.xlsx
+++ b/Salesforce/src/test/resources/suitea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>TCID</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>https://www.zoho.com/</t>
+  </si>
+  <si>
+    <t>verifyTitle</t>
   </si>
 </sst>
 </file>
@@ -821,10 +824,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -887,15 +890,11 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
@@ -903,128 +902,134 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
@@ -1036,6 +1041,15 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce/src/test/resources/suitea.xlsx
+++ b/Salesforce/src/test/resources/suitea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
   <si>
     <t>TCID</t>
   </si>
@@ -138,18 +138,6 @@
     <t>loginlink</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>nextbutton</t>
-  </si>
-  <si>
-    <t>userpassword</t>
-  </si>
-  <si>
-    <t>signinbutton</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -160,6 +148,21 @@
   </si>
   <si>
     <t>verifyTitle</t>
+  </si>
+  <si>
+    <t>loginlink_xpath</t>
+  </si>
+  <si>
+    <t>username_id</t>
+  </si>
+  <si>
+    <t>nextbutton_xpath</t>
+  </si>
+  <si>
+    <t>signinbutton_xpath</t>
+  </si>
+  <si>
+    <t>userpassword_id</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -657,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -669,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -680,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
@@ -692,7 +695,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -713,28 +716,28 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -742,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -753,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -762,10 +765,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -776,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -785,31 +788,31 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +830,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -835,7 +838,7 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -883,7 +886,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -892,7 +895,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -908,7 +911,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -923,7 +926,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -940,7 +943,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -955,7 +958,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -972,7 +975,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2"/>
     </row>

--- a/Salesforce/src/test/resources/suitea.xlsx
+++ b/Salesforce/src/test/resources/suitea.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Salesforce/src/test/resources/suitea.xlsx
+++ b/Salesforce/src/test/resources/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="52">
   <si>
     <t>TCID</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>userpassword_id</t>
+  </si>
+  <si>
+    <t>homepagetitle</t>
+  </si>
+  <si>
+    <t>validateElementPresent</t>
+  </si>
+  <si>
+    <t>ExecuteOnFailure</t>
   </si>
 </sst>
 </file>
@@ -570,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,7 +640,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -827,22 +836,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -856,10 +866,13 @@
         <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -870,11 +883,12 @@
         <v>34</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -885,11 +899,12 @@
         <v>35</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -897,154 +912,173 @@
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1052,6 +1086,17 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Salesforce/src/test/resources/suitea.xlsx
+++ b/Salesforce/src/test/resources/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Salesforce/src/test/resources/suitea.xlsx
+++ b/Salesforce/src/test/resources/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
     <t>validateElementPresent</t>
   </si>
   <si>
-    <t>ExecuteOnFailure</t>
+    <t>ProceedOnFailure</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
